--- a/documents/Project Roadmap.xlsx
+++ b/documents/Project Roadmap.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Roadmap" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UeilSUC21tkJIl6gJc0ocifBnTNmyxnh65+9N6Y+S8Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="y1Wy4XVdvGscEPar2Dh9mCIAi65IpaRyFWr+boXKkFU="/>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +61,7 @@
     <t>Project scope finalised, team charter signed.</t>
   </si>
   <si>
-    <t>Resarch</t>
+    <t>Research</t>
   </si>
   <si>
     <t>Search relevant information and data to support hypothesis and the work</t>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,6 +278,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -582,7 +585,7 @@
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -595,63 +598,63 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>45693.0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>45706.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
